--- a/data/input/absenteeism_data_33.xlsx
+++ b/data/input/absenteeism_data_33.xlsx
@@ -476,69 +476,69 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>86979</v>
+        <v>32454</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vitor Hugo Vieira</t>
+          <t>Luiz Otávio Sales</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45079</v>
+        <v>45084</v>
       </c>
       <c r="G2" t="n">
-        <v>6656.39</v>
+        <v>5422.86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>68566</v>
+        <v>36615</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carlos Eduardo Nunes</t>
+          <t>Maria Cecília Sales</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45105</v>
+        <v>45106</v>
       </c>
       <c r="G3" t="n">
-        <v>5764.8</v>
+        <v>4660.26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>64404</v>
+        <v>98397</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>João Gabriel das Neves</t>
+          <t>Murilo Fogaça</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,142 +548,142 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45084</v>
+        <v>45098</v>
       </c>
       <c r="G4" t="n">
-        <v>6078.58</v>
+        <v>7509.85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6977</v>
+        <v>68578</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Srta. Pietra Caldeira</t>
+          <t>Anthony Cardoso</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45095</v>
+        <v>45104</v>
       </c>
       <c r="G5" t="n">
-        <v>7852.97</v>
+        <v>5088.26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>38391</v>
+        <v>48352</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Noah Rocha</t>
+          <t>Dra. Rafaela Barros</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45090</v>
+        <v>45102</v>
       </c>
       <c r="G6" t="n">
-        <v>3916.47</v>
+        <v>6391.95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3268</v>
+        <v>90718</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pedro Barbosa</t>
+          <t>Daniela Silva</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45086</v>
+        <v>45084</v>
       </c>
       <c r="G7" t="n">
-        <v>5710.23</v>
+        <v>12034.21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>65385</v>
+        <v>43137</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sr. João Barbosa</t>
+          <t>Luiz Otávio Alves</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45099</v>
+        <v>45089</v>
       </c>
       <c r="G8" t="n">
-        <v>9917.639999999999</v>
+        <v>12133.99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>26610</v>
+        <v>63352</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ana Luiza Ferreira</t>
+          <t>Vinicius Martins</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -693,31 +693,31 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45106</v>
+        <v>45091</v>
       </c>
       <c r="G9" t="n">
-        <v>12080.59</v>
+        <v>2663.73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>31233</v>
+        <v>42121</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Guilherme Cavalcanti</t>
+          <t>Lorenzo Moura</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45102</v>
+        <v>45103</v>
       </c>
       <c r="G10" t="n">
-        <v>10450</v>
+        <v>9442.23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6430</v>
+        <v>60925</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Caroline Cardoso</t>
+          <t>Maria Clara Viana</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45092</v>
+        <v>45085</v>
       </c>
       <c r="G11" t="n">
-        <v>10732.06</v>
+        <v>12407.93</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_33.xlsx
+++ b/data/input/absenteeism_data_33.xlsx
@@ -476,161 +476,161 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>32454</v>
+        <v>81922</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Luiz Otávio Sales</t>
+          <t>Levi Cavalcanti</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45084</v>
+        <v>45106</v>
       </c>
       <c r="G2" t="n">
-        <v>5422.86</v>
+        <v>2764.52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>36615</v>
+        <v>84299</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maria Cecília Sales</t>
+          <t>Nathan Barbosa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45106</v>
+        <v>45088</v>
       </c>
       <c r="G3" t="n">
-        <v>4660.26</v>
+        <v>8348.34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>98397</v>
+        <v>28938</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Murilo Fogaça</t>
+          <t>Sra. Ana Beatriz Pinto</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45098</v>
+        <v>45096</v>
       </c>
       <c r="G4" t="n">
-        <v>7509.85</v>
+        <v>10897.25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>68578</v>
+        <v>51391</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Anthony Cardoso</t>
+          <t>Vicente da Mota</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45104</v>
+        <v>45102</v>
       </c>
       <c r="G5" t="n">
-        <v>5088.26</v>
+        <v>10208.05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>48352</v>
+        <v>19128</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dra. Rafaela Barros</t>
+          <t>Igor Novaes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45102</v>
+        <v>45087</v>
       </c>
       <c r="G6" t="n">
-        <v>6391.95</v>
+        <v>3625.23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>90718</v>
+        <v>23159</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Daniela Silva</t>
+          <t>Srta. Ana Luiza Lima</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,129 +639,129 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45084</v>
+        <v>45092</v>
       </c>
       <c r="G7" t="n">
-        <v>12034.21</v>
+        <v>3431.51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>43137</v>
+        <v>41203</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Luiz Otávio Alves</t>
+          <t>Alice Pereira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45089</v>
+        <v>45088</v>
       </c>
       <c r="G8" t="n">
-        <v>12133.99</v>
+        <v>3449.59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>63352</v>
+        <v>34948</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Vinicius Martins</t>
+          <t>Lara Aragão</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45091</v>
+        <v>45100</v>
       </c>
       <c r="G9" t="n">
-        <v>2663.73</v>
+        <v>10929.54</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>42121</v>
+        <v>31137</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Lorenzo Moura</t>
+          <t>Alana da Mota</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45103</v>
+        <v>45092</v>
       </c>
       <c r="G10" t="n">
-        <v>9442.23</v>
+        <v>7682.75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>60925</v>
+        <v>48534</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Maria Clara Viana</t>
+          <t>João Pereira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45085</v>
+        <v>45099</v>
       </c>
       <c r="G11" t="n">
-        <v>12407.93</v>
+        <v>11129.84</v>
       </c>
     </row>
   </sheetData>
